--- a/biology/Botanique/Champ_de_Juillet/Champ_de_Juillet.xlsx
+++ b/biology/Botanique/Champ_de_Juillet/Champ_de_Juillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Champ de Juillet est un parc de la ville de Limoges, situé près de la gare des Bénédictins, dans l'axe joignant cette dernière à la place royale Denis-Dussoubs. Il recouvre 2,7 hectares pour le seul parc, plus de cinq hectares si l'on prend en compte les parkings.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'à l'arrivée du train, l'actuel secteur du Champ de Juillet, qui doit son nom à la révolution de 1830, est encore assez campagnard, et accueille l'abbaye de Saint-Martin-lez-Limoges, devenue plus tard couvent des Feuillants[1]. Il est entièrement dévolu aux cultures agricoles jusqu'à la création d'un Champ de Mars destiné au 9e régiment de Chasseurs. Vite obsolète, la zone, acquise par la mairie en 1827, est occupée par un champ de foire qui verra la tenue de grandes manifestations, telles l'« Exposition du Centre de la France » en 1858, puis plus tard la Foire-Exposition de Limoges. 
-Cette même année 1858, le paysagiste Eugène Bühler, créateur du parc de la Tête d'or à Lyon, est chargé de réaménager complètement le Champ de Juillet afin de permettre la création d'une promenade publique[2]. Le 5 juin 1859, le nouveau jardin est inauguré. Il est réaménagé par Roger Gonthier, architecte de la nouvelle  gare en 1925[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'à l'arrivée du train, l'actuel secteur du Champ de Juillet, qui doit son nom à la révolution de 1830, est encore assez campagnard, et accueille l'abbaye de Saint-Martin-lez-Limoges, devenue plus tard couvent des Feuillants. Il est entièrement dévolu aux cultures agricoles jusqu'à la création d'un Champ de Mars destiné au 9e régiment de Chasseurs. Vite obsolète, la zone, acquise par la mairie en 1827, est occupée par un champ de foire qui verra la tenue de grandes manifestations, telles l'« Exposition du Centre de la France » en 1858, puis plus tard la Foire-Exposition de Limoges. 
+Cette même année 1858, le paysagiste Eugène Bühler, créateur du parc de la Tête d'or à Lyon, est chargé de réaménager complètement le Champ de Juillet afin de permettre la création d'une promenade publique. Le 5 juin 1859, le nouveau jardin est inauguré. Il est réaménagé par Roger Gonthier, architecte de la nouvelle  gare en 1925.
 Il était connu comme un lieu où la prostitution était courante, un phénomène qui a fait l'objet de plusieurs reportages télévisés dans les années 2010.
 			Entrée située face à la gare
 			Le feu d'artifice du 14 juillet
